--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 21,86</t>
+          <t>7,79; 21,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 33,35</t>
+          <t>17,41; 33,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 29,61</t>
+          <t>14,07; 29,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 28,78</t>
+          <t>12,47; 29,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 26,66</t>
+          <t>13,54; 27,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 35,47</t>
+          <t>17,78; 34,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 29,57</t>
+          <t>13,21; 29,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,44; 20,82</t>
+          <t>11,59; 21,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,04</t>
+          <t>12,5; 21,89</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,33</t>
+          <t>19,25; 31,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,7</t>
+          <t>16,09; 26,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,47</t>
+          <t>13,76; 22,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,72</t>
+          <t>13,98; 20,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,72</t>
+          <t>16,27; 23,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,86</t>
+          <t>11,64; 17,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 23,62</t>
+          <t>16,79; 24,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,21</t>
+          <t>16,7; 23,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 31,67</t>
+          <t>24,87; 32,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 24,77</t>
+          <t>18,14; 25,04</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,69</t>
+          <t>18,76; 24,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,46</t>
+          <t>16,1; 20,68</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 26,26</t>
+          <t>21,31; 26,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,17</t>
+          <t>15,59; 20,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,38</t>
+          <t>18,88; 23,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,3</t>
+          <t>16,76; 21,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,79; 25,21</t>
+          <t>19,94; 25,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,66</t>
+          <t>14,6; 19,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,94</t>
+          <t>17,29; 24,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 32,35</t>
+          <t>26,28; 32,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 32,15</t>
+          <t>26,1; 32,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,58</t>
+          <t>18,1; 23,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,06</t>
+          <t>22,1; 26,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 26,42</t>
+          <t>22,54; 26,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 27,98</t>
+          <t>23,78; 28,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,9</t>
+          <t>17,49; 21,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 24,61</t>
+          <t>20,2; 24,51</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,85</t>
+          <t>15,3; 21,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,58</t>
+          <t>21,28; 27,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,7</t>
+          <t>14,3; 19,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 23,02</t>
+          <t>16,26; 23,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,47</t>
+          <t>22,69; 29,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,87; 36,86</t>
+          <t>29,89; 37,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,65</t>
+          <t>17,04; 22,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 54,33</t>
+          <t>25,01; 59,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 24,07</t>
+          <t>19,63; 24,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 31,22</t>
+          <t>26,4; 31,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 20,51</t>
+          <t>16,25; 20,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 46,73</t>
+          <t>22,14; 44,36</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,88</t>
+          <t>12,66; 17,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,73</t>
+          <t>13,85; 18,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,23</t>
+          <t>14,29; 19,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,62</t>
+          <t>17,89; 23,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,79</t>
+          <t>19,35; 24,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,08; 24,23</t>
+          <t>19,36; 24,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,44</t>
+          <t>21,34; 26,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,08</t>
+          <t>23,8; 29,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 20,37</t>
+          <t>16,69; 20,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,83</t>
+          <t>17,2; 20,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 22,22</t>
+          <t>18,49; 22,3</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 25,53</t>
+          <t>21,98; 25,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,81; 18,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,21; 22,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,26; 17,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,64; 21,79</t>
+          <t>18,69; 21,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,84; 25,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,16; 29,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,09; 23,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,3; 34,11</t>
+          <t>24,34; 34,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,78; 21,83</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,19; 25,22</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,18; 20,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,27; 27,86</t>
+          <t>22,11; 27,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,79; 21,47</t>
+          <t>8,3; 22,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,41; 33,25</t>
+          <t>16,93; 34,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,07; 29,56</t>
+          <t>13,92; 29,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 27,18</t>
+          <t>13,48; 27,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 34,76</t>
+          <t>16,93; 34,5</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,21; 29,52</t>
+          <t>13,75; 28,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,5; 21,89</t>
+          <t>12,69; 22,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,25; 31,11</t>
+          <t>19,66; 31,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,09; 26,91</t>
+          <t>16,01; 27,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,98; 20,08</t>
+          <t>14,16; 20,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 23,11</t>
+          <t>16,08; 22,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 17,78</t>
+          <t>11,99; 17,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 23,29</t>
+          <t>16,63; 23,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,87; 32,27</t>
+          <t>24,7; 32,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,14; 25,04</t>
+          <t>17,87; 24,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 20,68</t>
+          <t>16,07; 20,47</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,31; 26,26</t>
+          <t>21,24; 26,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,16</t>
+          <t>15,67; 20,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 21,98</t>
+          <t>16,9; 22,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,94; 25,31</t>
+          <t>19,75; 25,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 19,72</t>
+          <t>14,74; 19,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,28; 32,28</t>
+          <t>26,27; 32,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 32,01</t>
+          <t>26,22; 32,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 23,59</t>
+          <t>18,51; 23,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,54; 26,56</t>
+          <t>22,4; 26,33</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,78; 28,0</t>
+          <t>23,93; 27,86</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 21,05</t>
+          <t>17,28; 20,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,3; 21,39</t>
+          <t>15,11; 21,33</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 27,53</t>
+          <t>20,95; 27,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,3; 19,9</t>
+          <t>14,37; 20,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,69; 29,17</t>
+          <t>22,49; 28,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,89; 37,09</t>
+          <t>29,77; 36,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,04; 22,74</t>
+          <t>17,09; 22,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,63; 24,4</t>
+          <t>19,95; 24,54</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,4; 31,25</t>
+          <t>26,44; 31,37</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,25; 20,36</t>
+          <t>16,43; 20,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,66; 17,28</t>
+          <t>12,32; 16,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,85; 18,78</t>
+          <t>13,82; 18,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,29; 19,01</t>
+          <t>14,33; 19,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 24,71</t>
+          <t>19,25; 24,53</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,36; 24,58</t>
+          <t>19,3; 24,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,64</t>
+          <t>21,17; 26,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 20,13</t>
+          <t>16,76; 20,08</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,2; 20,91</t>
+          <t>17,37; 21,01</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,49; 22,3</t>
+          <t>18,7; 22,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,81; 18,47</t>
+          <t>15,87; 18,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,21; 22,08</t>
+          <t>19,25; 22,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,26; 17,99</t>
+          <t>15,52; 18,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,84; 25,77</t>
+          <t>22,87; 25,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,16; 29,22</t>
+          <t>26,05; 29,03</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,09; 23,0</t>
+          <t>20,16; 23,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,83</t>
+          <t>19,73; 21,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 25,22</t>
+          <t>23,05; 25,21</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,18; 20,07</t>
+          <t>18,2; 20,13</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 22,8</t>
+          <t>8,52; 21,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 34,27</t>
+          <t>17,22; 33,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,92; 29,8</t>
+          <t>13,91; 29,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,47; 29,1</t>
+          <t>12,53; 28,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,48; 27,23</t>
+          <t>13,27; 26,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,93; 34,5</t>
+          <t>17,82; 35,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,75; 28,3</t>
+          <t>13,22; 29,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,59; 21,45</t>
+          <t>11,44; 20,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,69; 22,28</t>
+          <t>12,31; 22,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,66; 31,51</t>
+          <t>19,68; 31,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,01; 27,94</t>
+          <t>15,73; 26,7</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,76; 22,26</t>
+          <t>13,28; 22,47</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,16; 20,07</t>
+          <t>13,6; 19,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,08; 22,5</t>
+          <t>16,09; 22,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,99; 17,85</t>
+          <t>11,67; 17,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 24,45</t>
+          <t>16,37; 23,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,63; 23,25</t>
+          <t>16,89; 23,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 32,37</t>
+          <t>24,24; 31,67</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,94</t>
+          <t>17,81; 24,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,76; 24,87</t>
+          <t>18,68; 24,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,07; 20,47</t>
+          <t>16,03; 20,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,24; 26,13</t>
+          <t>21,49; 26,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,67; 20,23</t>
+          <t>15,58; 20,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,88; 23,56</t>
+          <t>18,98; 23,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 22,2</t>
+          <t>16,85; 22,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,75; 25,2</t>
+          <t>19,79; 25,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,74; 19,71</t>
+          <t>14,76; 19,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 24,06</t>
+          <t>17,21; 23,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,27; 32,63</t>
+          <t>26,45; 32,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,22; 32,16</t>
+          <t>26,5; 32,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,51; 23,58</t>
+          <t>18,42; 23,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,1; 26,79</t>
+          <t>21,97; 27,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,4; 26,33</t>
+          <t>22,49; 26,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,93; 27,86</t>
+          <t>23,96; 27,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,28; 20,83</t>
+          <t>17,29; 20,9</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,2; 24,51</t>
+          <t>20,14; 24,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,11; 21,33</t>
+          <t>15,4; 21,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,95; 27,8</t>
+          <t>21,22; 27,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,37; 20,32</t>
+          <t>14,16; 19,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 23,14</t>
+          <t>16,13; 23,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,49; 28,82</t>
+          <t>22,9; 29,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,77; 36,71</t>
+          <t>29,87; 36,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,09; 22,92</t>
+          <t>16,72; 22,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,01; 59,21</t>
+          <t>25,32; 54,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 24,54</t>
+          <t>19,68; 24,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,44; 31,37</t>
+          <t>26,46; 31,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,43; 20,57</t>
+          <t>16,48; 20,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,14; 44,36</t>
+          <t>22,3; 46,73</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,32; 16,7</t>
+          <t>12,46; 16,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,78</t>
+          <t>13,61; 18,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,24</t>
+          <t>14,32; 19,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,89; 23,83</t>
+          <t>17,97; 23,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,25; 24,53</t>
+          <t>19,4; 24,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,3; 24,32</t>
+          <t>19,08; 24,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,17; 26,55</t>
+          <t>21,11; 26,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,8; 29,08</t>
+          <t>23,82; 29,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 20,08</t>
+          <t>16,71; 20,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 21,01</t>
+          <t>17,32; 20,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,7; 22,53</t>
+          <t>18,66; 22,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,98; 25,75</t>
+          <t>21,92; 25,53</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,87; 18,54</t>
+          <t>15,89; 18,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19,25; 22,06</t>
+          <t>19,09; 22,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,52; 18,01</t>
+          <t>15,53; 18,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,69; 21,94</t>
+          <t>18,64; 21,79</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>22,87; 25,96</t>
+          <t>22,88; 25,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>26,05; 29,03</t>
+          <t>26,2; 29,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>20,16; 23,01</t>
+          <t>20,17; 23,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,24</t>
+          <t>24,3; 34,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,73; 21,89</t>
+          <t>19,78; 21,85</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23,05; 25,21</t>
+          <t>23,18; 25,29</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>18,2; 20,13</t>
+          <t>18,27; 20,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>22,11; 27,59</t>
+          <t>22,27; 27,86</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,94%</t>
+          <t>16,25%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>24,5%</t>
+          <t>20,12%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>21,3%</t>
+          <t>15,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>20,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>27,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,46%</t>
+          <t>21,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,0%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>23,92%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>17,54%</t>
+          <t>20,75%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 21,86</t>
+          <t>13,72; 19,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,22; 33,35</t>
+          <t>17,31; 23,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,91; 29,61</t>
+          <t>12,75; 18,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 28,78</t>
+          <t>16,95; 23,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 26,66</t>
+          <t>16,9; 23,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 35,47</t>
+          <t>24,23; 31,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,22; 29,57</t>
+          <t>17,94; 24,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,44; 20,82</t>
+          <t>18,51; 23,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12,31; 22,04</t>
+          <t>16,06; 20,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>19,68; 31,33</t>
+          <t>21,56; 26,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,73; 26,7</t>
+          <t>16,48; 20,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>13,28; 22,47</t>
+          <t>18,62; 22,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>19,4%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>17,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>29,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>20,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>18,26%</t>
+          <t>24,38%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>20,94%</t>
+          <t>20,93%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,6; 19,72</t>
+          <t>16,85; 22,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,09; 22,72</t>
+          <t>19,79; 25,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,67; 17,86</t>
+          <t>14,76; 19,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 23,62</t>
+          <t>9,44; 23,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 23,21</t>
+          <t>26,45; 32,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,24; 31,67</t>
+          <t>26,5; 32,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 24,77</t>
+          <t>18,42; 23,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,68; 24,69</t>
+          <t>22,32; 27,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 20,46</t>
+          <t>22,49; 26,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,49; 26,26</t>
+          <t>23,96; 27,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,58; 20,17</t>
+          <t>17,29; 20,9</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,98; 23,38</t>
+          <t>13,99; 24,44</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,22%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>24,26%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>17,17%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>25,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,11%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>24,33%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,38%</t>
+          <t>22,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>32,39%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,3</t>
+          <t>15,4; 21,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,79; 25,21</t>
+          <t>21,22; 27,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,66</t>
+          <t>14,16; 19,7</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,21; 23,94</t>
+          <t>16,53; 23,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,45; 32,35</t>
+          <t>22,9; 29,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 32,15</t>
+          <t>29,87; 36,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,58</t>
+          <t>16,72; 22,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,06</t>
+          <t>24,22; 66,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>22,49; 26,42</t>
+          <t>19,68; 24,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 27,98</t>
+          <t>26,46; 31,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,9</t>
+          <t>16,48; 20,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>20,14; 24,61</t>
+          <t>22,01; 59,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,26%</t>
+          <t>16,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>21,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>21,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,24%</t>
+          <t>21,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>23,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,8%</t>
+          <t>25,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>22,03%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>19,04%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>23,41%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,85</t>
+          <t>12,46; 16,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,58</t>
+          <t>13,61; 18,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,7</t>
+          <t>14,32; 19,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 23,02</t>
+          <t>18,32; 24,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,47</t>
+          <t>19,4; 24,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,87; 36,86</t>
+          <t>19,08; 24,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,65</t>
+          <t>21,11; 26,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,32; 54,33</t>
+          <t>20,51; 28,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,68; 24,07</t>
+          <t>16,71; 20,37</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,46; 31,22</t>
+          <t>17,32; 20,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,48; 20,51</t>
+          <t>18,66; 22,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>22,3; 46,73</t>
+          <t>20,57; 25,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>16,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>21,9%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,68%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,41%</t>
+          <t>28,64%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>20,81%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>19,04%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>19,16%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>24,23%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,88</t>
+          <t>15,89; 18,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,73</t>
+          <t>19,09; 22,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,23</t>
+          <t>15,53; 18,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,97; 23,62</t>
+          <t>15,12; 21,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,79</t>
+          <t>22,88; 25,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,08; 24,23</t>
+          <t>26,2; 29,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,44</t>
+          <t>20,17; 23,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,82; 29,08</t>
+          <t>23,93; 41,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,71; 20,37</t>
+          <t>19,78; 21,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,83</t>
+          <t>23,18; 25,29</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,66; 22,22</t>
+          <t>18,27; 20,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,92; 25,53</t>
+          <t>21,41; 30,99</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>17,11%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>20,63%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>16,69%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>20,28%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>24,39%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>27,55%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>21,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>26,9%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>20,81%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>24,16%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>19,16%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>23,78%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>15,89; 18,49</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>19,09; 22,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>15,53; 18,05</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>18,64; 21,79</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>22,88; 25,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>26,2; 29,26</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>20,17; 23,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>24,3; 34,11</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>19,78; 21,85</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>23,18; 25,29</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>18,27; 20,22</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>22,27; 27,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P21_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,72; 19,04</t>
+          <t>13,43; 19,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,31; 23,36</t>
+          <t>17,39; 23,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 18,41</t>
+          <t>13,0; 18,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,95; 23,95</t>
+          <t>17,06; 24,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 23,0</t>
+          <t>16,88; 22,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,23; 31,41</t>
+          <t>24,6; 31,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,2</t>
+          <t>18,15; 24,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,51; 23,69</t>
+          <t>18,51; 23,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,06; 20,16</t>
+          <t>16,15; 20,18</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>21,56; 26,0</t>
+          <t>21,66; 26,56</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,48; 20,65</t>
+          <t>16,44; 20,5</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,62; 22,91</t>
+          <t>18,61; 22,84</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,85; 22,3</t>
+          <t>16,98; 21,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>19,79; 25,21</t>
+          <t>19,8; 25,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,66</t>
+          <t>14,98; 19,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 23,54</t>
+          <t>9,86; 23,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,45; 32,35</t>
+          <t>26,36; 32,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>26,5; 32,15</t>
+          <t>26,25; 31,86</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,42; 23,58</t>
+          <t>18,36; 23,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>22,32; 27,44</t>
+          <t>22,36; 27,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,49; 26,42</t>
+          <t>22,58; 26,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>23,96; 27,98</t>
+          <t>24,0; 27,75</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,29; 20,9</t>
+          <t>17,11; 20,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,99; 24,44</t>
+          <t>14,18; 24,28</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,4; 21,85</t>
+          <t>15,25; 21,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,22; 27,58</t>
+          <t>20,89; 27,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,16; 19,7</t>
+          <t>14,38; 19,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,53; 23,66</t>
+          <t>16,55; 23,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,9; 29,47</t>
+          <t>22,45; 29,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,87; 36,86</t>
+          <t>29,84; 36,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 22,65</t>
+          <t>16,98; 22,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,22; 66,68</t>
+          <t>24,49; 72,64</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>19,68; 24,07</t>
+          <t>19,79; 24,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>26,46; 31,22</t>
+          <t>26,15; 31,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,48; 20,51</t>
+          <t>16,23; 20,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 59,3</t>
+          <t>21,94; 54,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,46; 16,88</t>
+          <t>12,29; 16,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,61; 18,73</t>
+          <t>13,87; 18,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,32; 19,23</t>
+          <t>14,29; 19,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>18,32; 24,12</t>
+          <t>18,29; 23,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,79</t>
+          <t>19,43; 24,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 24,23</t>
+          <t>19,13; 24,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 26,44</t>
+          <t>21,11; 26,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,51; 28,48</t>
+          <t>20,4; 28,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 20,37</t>
+          <t>16,66; 20,18</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,83</t>
+          <t>17,37; 20,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 22,22</t>
+          <t>18,58; 22,44</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>20,57; 25,3</t>
+          <t>20,56; 25,44</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 18,49</t>
+          <t>15,91; 18,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,09; 22,01</t>
+          <t>19,24; 22,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,53; 18,05</t>
+          <t>15,33; 17,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>15,12; 21,75</t>
+          <t>15,24; 21,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,88; 25,74</t>
+          <t>22,94; 25,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>26,2; 29,26</t>
+          <t>26,08; 29,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,17; 23,0</t>
+          <t>20,07; 22,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,93; 41,72</t>
+          <t>23,87; 43,22</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>19,78; 21,85</t>
+          <t>19,81; 21,78</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>23,18; 25,29</t>
+          <t>23,15; 25,26</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>18,27; 20,22</t>
+          <t>18,17; 20,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>21,41; 30,99</t>
+          <t>21,15; 32,19</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha utilizado un servicio de urgencias en el último año</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>112781</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>141424</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>105882</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>128631</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>136096</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>193387</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>141271</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>143094</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>248877</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>334810</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>247152</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>271725</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>93187; 132600</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>122231; 161980</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>87454; 125434</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>108106; 154268</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>116048; 157168</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>171474; 218544</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>122136; 167583</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>125069; 161896</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>223147; 278710</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>303217; 371805</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>221254; 275881</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>243643; 299053</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>186619</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>228909</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>174586</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>213681</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>283932</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>300481</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>217248</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>236136</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>470551</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>529390</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>391834</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>449817</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>163278; 211035</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>201529; 257712</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>152306; 202907</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>117613; 280962</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>255255; 313033</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>270992; 328888</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>190904; 245316</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>213853; 262607</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>435803; 510203</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>491938; 568994</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>351807; 427814</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>304716; 521869</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>123654</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>183822</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>128310</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>139569</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>176539</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>258015</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>154983</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>389764</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>300193</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>441837</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>283293</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>529333</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>103476; 146966</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>158248; 210807</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>109112; 151565</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>116629; 164157</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>153553; 199036</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>231596; 286134</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>133088; 176745</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>227640; 675203</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>269544; 331745</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>401115; 476905</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>250359; 316435</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>358489; 887382</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>137292</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>152403</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>155812</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>195043</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>227442</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>227589</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>247978</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>277492</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>364734</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>379993</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>403790</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>472536</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>115681; 157683</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>131188; 175517</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>133704; 181054</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>169494; 221425</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>201841; 256729</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>200803; 256452</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>219932; 276319</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>222815; 309675</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>329909; 399614</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>346579; 415393</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>367511; 443766</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>415137; 513526</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>549</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>663</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>803</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1313</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1352</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1571</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>560346</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>706558</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>564590</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>676924</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>824009</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>979472</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>761480</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1046486</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1384355</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1686030</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>1326069</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>1723411</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>521268; 607385</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>658662; 759263</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>518647; 608351</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>527034; 749197</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>774989; 873724</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>927222; 1038189</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>710011; 809947</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>871974; 1578998</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>1317955; 1449133</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1615706; 1763105</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1257784; 1393367</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1504178; 2288957</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>